--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt16-Lrp5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt16-Lrp5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Wnt16</t>
+  </si>
+  <si>
+    <t>Lrp5</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Wnt16</t>
-  </si>
-  <si>
-    <t>Lrp5</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.3685180000000001</v>
+        <v>0.09128733333333333</v>
       </c>
       <c r="H2">
-        <v>1.105554</v>
+        <v>0.273862</v>
       </c>
       <c r="I2">
-        <v>0.4424298074673942</v>
+        <v>0.2037302918084446</v>
       </c>
       <c r="J2">
-        <v>0.4620258772003143</v>
+        <v>0.2037302918084446</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.779843</v>
+        <v>10.250695</v>
       </c>
       <c r="N2">
-        <v>50.33952900000001</v>
+        <v>30.752085</v>
       </c>
       <c r="O2">
-        <v>0.3792236656946227</v>
+        <v>0.2501330709220828</v>
       </c>
       <c r="P2">
-        <v>0.3968949233565789</v>
+        <v>0.259830908271274</v>
       </c>
       <c r="Q2">
-        <v>6.183674182674002</v>
+        <v>0.9357586113633332</v>
       </c>
       <c r="R2">
-        <v>55.65306764406601</v>
+        <v>8.421827502269998</v>
       </c>
       <c r="S2">
-        <v>0.1677798534003514</v>
+        <v>0.0509596835298983</v>
       </c>
       <c r="T2">
-        <v>0.1833757251201749</v>
+        <v>0.05293542676295986</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.3685180000000001</v>
+        <v>0.09128733333333333</v>
       </c>
       <c r="H3">
-        <v>1.105554</v>
+        <v>0.273862</v>
       </c>
       <c r="I3">
-        <v>0.4424298074673942</v>
+        <v>0.2037302918084446</v>
       </c>
       <c r="J3">
-        <v>0.4620258772003143</v>
+        <v>0.2037302918084446</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>30.253893</v>
       </c>
       <c r="O3">
-        <v>0.2279121881532281</v>
+        <v>0.2460808482884365</v>
       </c>
       <c r="P3">
-        <v>0.2385325564622017</v>
+        <v>0.2556215780794031</v>
       </c>
       <c r="Q3">
-        <v>3.716368046858001</v>
+        <v>0.9205990716406667</v>
       </c>
       <c r="R3">
-        <v>33.447312421722</v>
+        <v>8.285391644765999</v>
       </c>
       <c r="S3">
-        <v>0.1008351455241052</v>
+        <v>0.05013412303027276</v>
       </c>
       <c r="T3">
-        <v>0.1102082136402822</v>
+        <v>0.0520778586946519</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.3685180000000001</v>
+        <v>0.09128733333333333</v>
       </c>
       <c r="H4">
-        <v>1.105554</v>
+        <v>0.273862</v>
       </c>
       <c r="I4">
-        <v>0.4424298074673942</v>
+        <v>0.2037302918084446</v>
       </c>
       <c r="J4">
-        <v>0.4620258772003143</v>
+        <v>0.2037302918084446</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.926370333333334</v>
+        <v>7.311799000000001</v>
       </c>
       <c r="N4">
-        <v>17.779111</v>
+        <v>21.935397</v>
       </c>
       <c r="O4">
-        <v>0.1339356918935731</v>
+        <v>0.1784193889131434</v>
       </c>
       <c r="P4">
-        <v>0.1401768955306099</v>
+        <v>0.1853368357235283</v>
       </c>
       <c r="Q4">
-        <v>2.183974142499334</v>
+        <v>0.6674746325793334</v>
       </c>
       <c r="R4">
-        <v>19.655767282494</v>
+        <v>6.007271693214</v>
       </c>
       <c r="S4">
-        <v>0.05925714237748578</v>
+        <v>0.03634943416755907</v>
       </c>
       <c r="T4">
-        <v>0.06476535312074685</v>
+        <v>0.03775872762480819</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.3685180000000001</v>
+        <v>0.09128733333333333</v>
       </c>
       <c r="H5">
-        <v>1.105554</v>
+        <v>0.273862</v>
       </c>
       <c r="I5">
-        <v>0.4424298074673942</v>
+        <v>0.2037302918084446</v>
       </c>
       <c r="J5">
-        <v>0.4620258772003143</v>
+        <v>0.2037302918084446</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.910247</v>
+        <v>4.588677499999999</v>
       </c>
       <c r="N5">
-        <v>11.820494</v>
+        <v>9.177354999999999</v>
       </c>
       <c r="O5">
-        <v>0.1335713053155888</v>
+        <v>0.1119709438770801</v>
       </c>
       <c r="P5">
-        <v>0.09319701938742614</v>
+        <v>0.07754142475796089</v>
       </c>
       <c r="Q5">
-        <v>2.178032403946001</v>
+        <v>0.4188881325016666</v>
       </c>
       <c r="R5">
-        <v>13.068194423676</v>
+        <v>2.51332879501</v>
       </c>
       <c r="S5">
-        <v>0.05909592689394449</v>
+        <v>0.0228118730701445</v>
       </c>
       <c r="T5">
-        <v>0.04305943463493026</v>
+        <v>0.01579753709318192</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.3685180000000001</v>
+        <v>0.09128733333333333</v>
       </c>
       <c r="H6">
-        <v>1.105554</v>
+        <v>0.273862</v>
       </c>
       <c r="I6">
-        <v>0.4424298074673942</v>
+        <v>0.2037302918084446</v>
       </c>
       <c r="J6">
-        <v>0.4620258772003143</v>
+        <v>0.2037302918084446</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.546787999999999</v>
+        <v>8.745164000000001</v>
       </c>
       <c r="N6">
-        <v>16.640364</v>
+        <v>26.235492</v>
       </c>
       <c r="O6">
-        <v>0.1253571489429874</v>
+        <v>0.2133957479992572</v>
       </c>
       <c r="P6">
-        <v>0.1311986052631834</v>
+        <v>0.2216692531678338</v>
       </c>
       <c r="Q6">
-        <v>2.044091220184</v>
+        <v>0.7983227011226667</v>
       </c>
       <c r="R6">
-        <v>18.396820981656</v>
+        <v>7.184904310104</v>
       </c>
       <c r="S6">
-        <v>0.05546173927150737</v>
+        <v>0.04347517801056998</v>
       </c>
       <c r="T6">
-        <v>0.06061715068418008</v>
+        <v>0.04516074163284276</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>0.714456</v>
       </c>
       <c r="I7">
-        <v>0.2859169525178549</v>
+        <v>0.5314951667785021</v>
       </c>
       <c r="J7">
-        <v>0.298580765951756</v>
+        <v>0.5314951667785019</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.779843</v>
+        <v>10.250695</v>
       </c>
       <c r="N7">
-        <v>50.33952900000001</v>
+        <v>30.752085</v>
       </c>
       <c r="O7">
-        <v>0.3792236656946227</v>
+        <v>0.2501330709220828</v>
       </c>
       <c r="P7">
-        <v>0.3968949233565789</v>
+        <v>0.259830908271274</v>
       </c>
       <c r="Q7">
-        <v>3.996153170136001</v>
+        <v>2.44122351564</v>
       </c>
       <c r="R7">
-        <v>35.965378531224</v>
+        <v>21.97101164076</v>
       </c>
       <c r="S7">
-        <v>0.1084264748180563</v>
+        <v>0.1329445182465513</v>
       </c>
       <c r="T7">
-        <v>0.1185051902181708</v>
+        <v>0.1380988719258504</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>0.714456</v>
       </c>
       <c r="I8">
-        <v>0.2859169525178549</v>
+        <v>0.5314951667785021</v>
       </c>
       <c r="J8">
-        <v>0.298580765951756</v>
+        <v>0.5314951667785019</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>30.253893</v>
       </c>
       <c r="O8">
-        <v>0.2279121881532281</v>
+        <v>0.2460808482884365</v>
       </c>
       <c r="P8">
-        <v>0.2385325564622017</v>
+        <v>0.2556215780794031</v>
       </c>
       <c r="Q8">
         <v>2.401675041912</v>
@@ -948,10 +948,10 @@
         <v>21.615075377208</v>
       </c>
       <c r="S8">
-        <v>0.06516395827844693</v>
+        <v>0.1307907815020578</v>
       </c>
       <c r="T8">
-        <v>0.07122123341291467</v>
+        <v>0.1358616332734962</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -980,10 +980,10 @@
         <v>0.714456</v>
       </c>
       <c r="I9">
-        <v>0.2859169525178549</v>
+        <v>0.5314951667785021</v>
       </c>
       <c r="J9">
-        <v>0.298580765951756</v>
+        <v>0.5314951667785019</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.926370333333334</v>
+        <v>7.311799000000001</v>
       </c>
       <c r="N9">
-        <v>17.779111</v>
+        <v>21.935397</v>
       </c>
       <c r="O9">
-        <v>0.1339356918935731</v>
+        <v>0.1784193889131434</v>
       </c>
       <c r="P9">
-        <v>0.1401768955306099</v>
+        <v>0.1853368357235283</v>
       </c>
       <c r="Q9">
-        <v>1.411376947624</v>
+        <v>1.741319555448</v>
       </c>
       <c r="R9">
-        <v>12.702392528616</v>
+        <v>15.671875999032</v>
       </c>
       <c r="S9">
-        <v>0.03829448485958078</v>
+        <v>0.09482904286690956</v>
       </c>
       <c r="T9">
-        <v>0.0418541248362688</v>
+        <v>0.0985056324130765</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1042,10 +1042,10 @@
         <v>0.714456</v>
       </c>
       <c r="I10">
-        <v>0.2859169525178549</v>
+        <v>0.5314951667785021</v>
       </c>
       <c r="J10">
-        <v>0.298580765951756</v>
+        <v>0.5314951667785019</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.910247</v>
+        <v>4.588677499999999</v>
       </c>
       <c r="N10">
-        <v>11.820494</v>
+        <v>9.177354999999999</v>
       </c>
       <c r="O10">
-        <v>0.1335713053155888</v>
+        <v>0.1119709438770801</v>
       </c>
       <c r="P10">
-        <v>0.09319701938742614</v>
+        <v>0.07754142475796089</v>
       </c>
       <c r="Q10">
-        <v>1.407537143544</v>
+        <v>1.09280272398</v>
       </c>
       <c r="R10">
-        <v>8.445222861264</v>
+        <v>6.556816343879999</v>
       </c>
       <c r="S10">
-        <v>0.03819030055966511</v>
+        <v>0.05951201549029498</v>
       </c>
       <c r="T10">
-        <v>0.02782683743311835</v>
+        <v>0.04121289248397508</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1104,10 +1104,10 @@
         <v>0.714456</v>
       </c>
       <c r="I11">
-        <v>0.2859169525178549</v>
+        <v>0.5314951667785021</v>
       </c>
       <c r="J11">
-        <v>0.298580765951756</v>
+        <v>0.5314951667785019</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.546787999999999</v>
+        <v>8.745164000000001</v>
       </c>
       <c r="N11">
-        <v>16.640364</v>
+        <v>26.235492</v>
       </c>
       <c r="O11">
-        <v>0.1253571489429874</v>
+        <v>0.2133957479992572</v>
       </c>
       <c r="P11">
-        <v>0.1311986052631834</v>
+        <v>0.2216692531678338</v>
       </c>
       <c r="Q11">
-        <v>1.320978655776</v>
+        <v>2.082678296928</v>
       </c>
       <c r="R11">
-        <v>11.888807901984</v>
+        <v>18.744104672352</v>
       </c>
       <c r="S11">
-        <v>0.03584173400210579</v>
+        <v>0.1134188086726884</v>
       </c>
       <c r="T11">
-        <v>0.03917338005128339</v>
+        <v>0.1178161366821038</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1202876666666667</v>
+        <v>0.11864</v>
       </c>
       <c r="H12">
-        <v>0.360863</v>
+        <v>0.35592</v>
       </c>
       <c r="I12">
-        <v>0.1444131608334882</v>
+        <v>0.2647745414130533</v>
       </c>
       <c r="J12">
-        <v>0.1508094983367045</v>
+        <v>0.2647745414130533</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.779843</v>
+        <v>10.250695</v>
       </c>
       <c r="N12">
-        <v>50.33952900000001</v>
+        <v>30.752085</v>
       </c>
       <c r="O12">
-        <v>0.3792236656946227</v>
+        <v>0.2501330709220828</v>
       </c>
       <c r="P12">
-        <v>0.3968949233565789</v>
+        <v>0.259830908271274</v>
       </c>
       <c r="Q12">
-        <v>2.018408161503</v>
+        <v>1.2161424548</v>
       </c>
       <c r="R12">
-        <v>18.165673453527</v>
+        <v>10.9452820932</v>
       </c>
       <c r="S12">
-        <v>0.05476488822582252</v>
+        <v>0.06622886914563321</v>
       </c>
       <c r="T12">
-        <v>0.05985552428379044</v>
+        <v>0.0687966095824637</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.1202876666666667</v>
+        <v>0.11864</v>
       </c>
       <c r="H13">
-        <v>0.360863</v>
+        <v>0.35592</v>
       </c>
       <c r="I13">
-        <v>0.1444131608334882</v>
+        <v>0.2647745414130533</v>
       </c>
       <c r="J13">
-        <v>0.1508094983367045</v>
+        <v>0.2647745414130533</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>30.253893</v>
       </c>
       <c r="O13">
-        <v>0.2279121881532281</v>
+        <v>0.2460808482884365</v>
       </c>
       <c r="P13">
-        <v>0.2385325564622017</v>
+        <v>0.2556215780794031</v>
       </c>
       <c r="Q13">
-        <v>1.213056732184333</v>
+        <v>1.19644062184</v>
       </c>
       <c r="R13">
-        <v>10.917510589659</v>
+        <v>10.76796559656</v>
       </c>
       <c r="S13">
-        <v>0.03291351948368437</v>
+        <v>0.06515594375610594</v>
       </c>
       <c r="T13">
-        <v>0.03597297517703627</v>
+        <v>0.06768208611125495</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1202876666666667</v>
+        <v>0.11864</v>
       </c>
       <c r="H14">
-        <v>0.360863</v>
+        <v>0.35592</v>
       </c>
       <c r="I14">
-        <v>0.1444131608334882</v>
+        <v>0.2647745414130533</v>
       </c>
       <c r="J14">
-        <v>0.1508094983367045</v>
+        <v>0.2647745414130533</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.926370333333334</v>
+        <v>7.311799000000001</v>
       </c>
       <c r="N14">
-        <v>17.779111</v>
+        <v>21.935397</v>
       </c>
       <c r="O14">
-        <v>0.1339356918935731</v>
+        <v>0.1784193889131434</v>
       </c>
       <c r="P14">
-        <v>0.1401768955306099</v>
+        <v>0.1853368357235283</v>
       </c>
       <c r="Q14">
-        <v>0.7128692591992223</v>
+        <v>0.8674718333600001</v>
       </c>
       <c r="R14">
-        <v>6.415823332793</v>
+        <v>7.807246500240001</v>
       </c>
       <c r="S14">
-        <v>0.0193420766147711</v>
+        <v>0.04724091187867475</v>
       </c>
       <c r="T14">
-        <v>0.02114000729336791</v>
+        <v>0.04907247568564362</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1202876666666667</v>
+        <v>0.11864</v>
       </c>
       <c r="H15">
-        <v>0.360863</v>
+        <v>0.35592</v>
       </c>
       <c r="I15">
-        <v>0.1444131608334882</v>
+        <v>0.2647745414130533</v>
       </c>
       <c r="J15">
-        <v>0.1508094983367045</v>
+        <v>0.2647745414130533</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.910247</v>
+        <v>4.588677499999999</v>
       </c>
       <c r="N15">
-        <v>11.820494</v>
+        <v>9.177354999999999</v>
       </c>
       <c r="O15">
-        <v>0.1335713053155888</v>
+        <v>0.1119709438770801</v>
       </c>
       <c r="P15">
-        <v>0.09319701938742614</v>
+        <v>0.07754142475796089</v>
       </c>
       <c r="Q15">
-        <v>0.7109298210536666</v>
+        <v>0.5444006986</v>
       </c>
       <c r="R15">
-        <v>4.265578926322</v>
+        <v>3.2664041916</v>
       </c>
       <c r="S15">
-        <v>0.01928945439727909</v>
+        <v>0.02964705531664062</v>
       </c>
       <c r="T15">
-        <v>0.01405499574029386</v>
+        <v>0.02053099518080388</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1202876666666667</v>
+        <v>0.11864</v>
       </c>
       <c r="H16">
-        <v>0.360863</v>
+        <v>0.35592</v>
       </c>
       <c r="I16">
-        <v>0.1444131608334882</v>
+        <v>0.2647745414130533</v>
       </c>
       <c r="J16">
-        <v>0.1508094983367045</v>
+        <v>0.2647745414130533</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,338 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.546787999999999</v>
+        <v>8.745164000000001</v>
       </c>
       <c r="N16">
-        <v>16.640364</v>
+        <v>26.235492</v>
       </c>
       <c r="O16">
-        <v>0.1253571489429874</v>
+        <v>0.2133957479992572</v>
       </c>
       <c r="P16">
-        <v>0.1311986052631834</v>
+        <v>0.2216692531678338</v>
       </c>
       <c r="Q16">
-        <v>0.6672101860146666</v>
+        <v>1.03752625696</v>
       </c>
       <c r="R16">
-        <v>6.004891674131999</v>
+        <v>9.337736312640001</v>
       </c>
       <c r="S16">
-        <v>0.01810322211193118</v>
+        <v>0.05650176131599881</v>
       </c>
       <c r="T16">
-        <v>0.019785995842216</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.5</v>
-      </c>
-      <c r="G17">
-        <v>0.1059835</v>
-      </c>
-      <c r="H17">
-        <v>0.211967</v>
-      </c>
-      <c r="I17">
-        <v>0.1272400791812627</v>
-      </c>
-      <c r="J17">
-        <v>0.08858385851122516</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>16.779843</v>
-      </c>
-      <c r="N17">
-        <v>50.33952900000001</v>
-      </c>
-      <c r="O17">
-        <v>0.3792236656946227</v>
-      </c>
-      <c r="P17">
-        <v>0.3968949233565789</v>
-      </c>
-      <c r="Q17">
-        <v>1.7783864905905</v>
-      </c>
-      <c r="R17">
-        <v>10.670318943543</v>
-      </c>
-      <c r="S17">
-        <v>0.04825244925039249</v>
-      </c>
-      <c r="T17">
-        <v>0.03515848373444274</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.5</v>
-      </c>
-      <c r="G18">
-        <v>0.1059835</v>
-      </c>
-      <c r="H18">
-        <v>0.211967</v>
-      </c>
-      <c r="I18">
-        <v>0.1272400791812627</v>
-      </c>
-      <c r="J18">
-        <v>0.08858385851122516</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>10.084631</v>
-      </c>
-      <c r="N18">
-        <v>30.253893</v>
-      </c>
-      <c r="O18">
-        <v>0.2279121881532281</v>
-      </c>
-      <c r="P18">
-        <v>0.2385325564622017</v>
-      </c>
-      <c r="Q18">
-        <v>1.0688044895885</v>
-      </c>
-      <c r="R18">
-        <v>6.412826937531001</v>
-      </c>
-      <c r="S18">
-        <v>0.02899956486699159</v>
-      </c>
-      <c r="T18">
-        <v>0.0211301342319685</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.5</v>
-      </c>
-      <c r="G19">
-        <v>0.1059835</v>
-      </c>
-      <c r="H19">
-        <v>0.211967</v>
-      </c>
-      <c r="I19">
-        <v>0.1272400791812627</v>
-      </c>
-      <c r="J19">
-        <v>0.08858385851122516</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>5.926370333333334</v>
-      </c>
-      <c r="N19">
-        <v>17.779111</v>
-      </c>
-      <c r="O19">
-        <v>0.1339356918935731</v>
-      </c>
-      <c r="P19">
-        <v>0.1401768955306099</v>
-      </c>
-      <c r="Q19">
-        <v>0.6280974702228335</v>
-      </c>
-      <c r="R19">
-        <v>3.768584821337</v>
-      </c>
-      <c r="S19">
-        <v>0.01704198804173545</v>
-      </c>
-      <c r="T19">
-        <v>0.01241741028022634</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.5</v>
-      </c>
-      <c r="G20">
-        <v>0.1059835</v>
-      </c>
-      <c r="H20">
-        <v>0.211967</v>
-      </c>
-      <c r="I20">
-        <v>0.1272400791812627</v>
-      </c>
-      <c r="J20">
-        <v>0.08858385851122516</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>5.910247</v>
-      </c>
-      <c r="N20">
-        <v>11.820494</v>
-      </c>
-      <c r="O20">
-        <v>0.1335713053155888</v>
-      </c>
-      <c r="P20">
-        <v>0.09319701938742614</v>
-      </c>
-      <c r="Q20">
-        <v>0.6263886629245</v>
-      </c>
-      <c r="R20">
-        <v>2.505554651698</v>
-      </c>
-      <c r="S20">
-        <v>0.01699562346470014</v>
-      </c>
-      <c r="T20">
-        <v>0.008255751579083665</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.5</v>
-      </c>
-      <c r="G21">
-        <v>0.1059835</v>
-      </c>
-      <c r="H21">
-        <v>0.211967</v>
-      </c>
-      <c r="I21">
-        <v>0.1272400791812627</v>
-      </c>
-      <c r="J21">
-        <v>0.08858385851122516</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>5.546787999999999</v>
-      </c>
-      <c r="N21">
-        <v>16.640364</v>
-      </c>
-      <c r="O21">
-        <v>0.1253571489429874</v>
-      </c>
-      <c r="P21">
-        <v>0.1311986052631834</v>
-      </c>
-      <c r="Q21">
-        <v>0.5878680059979999</v>
-      </c>
-      <c r="R21">
-        <v>3.527208035988</v>
-      </c>
-      <c r="S21">
-        <v>0.01595045355744306</v>
-      </c>
-      <c r="T21">
-        <v>0.01162207868550392</v>
+        <v>0.05869237485288721</v>
       </c>
     </row>
   </sheetData>
